--- a/Typology-1022-submission.xlsx
+++ b/Typology-1022-submission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Typology" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Typology!$A$1:$BD$125</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -12418,9 +12417,6 @@
     <t>Link to the plan - text</t>
   </si>
   <si>
-    <t>National population for the year 2020 according to the World Bank data - numerical</t>
-  </si>
-  <si>
     <t xml:space="preserve">ISO continent code (AF: Africa; AS: Asia; EU: Europe; NA: North America; OC: Oceania; SA: South America) </t>
   </si>
   <si>
@@ -13116,6 +13112,9 @@
 Target 16.7: Ensure that decision-making processes are responsive, inclusive, participatory and representative at all levels
 Target 16.8: By 2030, provide legal identity for all citizens, including birth registration
 Target 16.9: Ensure that all citizens have access to information and protect their fundamental freedoms as provided for by Vietnamese legislation and international treaties to which Viet Nam is a party</t>
+  </si>
+  <si>
+    <t>National population for the year 2020 according to the World Bank data - numerical (x1000)</t>
   </si>
 </sst>
 </file>
@@ -13567,9 +13566,9 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:BC158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13784,7 +13783,7 @@
         <v>45</v>
       </c>
       <c r="AZ1" s="11" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="BA1" s="15" t="s">
         <v>288</v>
@@ -14009,7 +14008,7 @@
         <v>295</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="R3" s="21" t="s">
         <v>285</v>
@@ -14021,19 +14020,19 @@
         <v>285</v>
       </c>
       <c r="U3" s="21" t="s">
+        <v>2376</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="W3" s="21" t="s">
         <v>2377</v>
       </c>
-      <c r="V3" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="W3" s="21" t="s">
+      <c r="X3" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y3" s="21" t="s">
         <v>2378</v>
-      </c>
-      <c r="X3" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y3" s="21" t="s">
-        <v>2379</v>
       </c>
       <c r="Z3" s="21" t="s">
         <v>287</v>
@@ -14063,13 +14062,13 @@
         <v>289</v>
       </c>
       <c r="AI3" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="AJ3" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="AK3" s="21" t="s">
         <v>2380</v>
-      </c>
-      <c r="AJ3" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="AK3" s="21" t="s">
-        <v>2381</v>
       </c>
       <c r="AL3" s="21" t="s">
         <v>289</v>
@@ -14536,7 +14535,7 @@
         <v>287</v>
       </c>
       <c r="AE6" s="21" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="AF6" s="21" t="s">
         <v>289</v>
@@ -15387,7 +15386,7 @@
         <v>287</v>
       </c>
       <c r="AU11" s="21" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="AV11" s="21" t="s">
         <v>289</v>
@@ -16790,7 +16789,7 @@
         <v>289</v>
       </c>
       <c r="AG20" s="21" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="AH20" s="21" t="s">
         <v>289</v>
@@ -16995,7 +16994,7 @@
         <v>287</v>
       </c>
       <c r="AU21" s="21" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="AV21" s="21" t="s">
         <v>289</v>
@@ -17783,7 +17782,7 @@
         <v>285</v>
       </c>
       <c r="AK26" s="21" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="AL26" s="21" t="s">
         <v>285</v>
@@ -17894,7 +17893,7 @@
         <v>285</v>
       </c>
       <c r="S27" s="23" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="T27" s="20" t="s">
         <v>285</v>
@@ -18053,7 +18052,7 @@
         <v>285</v>
       </c>
       <c r="Q28" s="21" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="R28" s="21" t="s">
         <v>287</v>
@@ -18071,7 +18070,7 @@
         <v>285</v>
       </c>
       <c r="W28" s="21" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="X28" s="21" t="s">
         <v>285</v>
@@ -18095,7 +18094,7 @@
         <v>287</v>
       </c>
       <c r="AE28" s="21" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="AF28" s="21" t="s">
         <v>289</v>
@@ -18107,7 +18106,7 @@
         <v>289</v>
       </c>
       <c r="AI28" s="21" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="AJ28" s="21" t="s">
         <v>289</v>
@@ -18141,13 +18140,13 @@
         <v>289</v>
       </c>
       <c r="AU28" s="21" t="s">
+        <v>2391</v>
+      </c>
+      <c r="AV28" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="AW28" s="21" t="s">
         <v>2392</v>
-      </c>
-      <c r="AV28" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="AW28" s="21" t="s">
-        <v>2393</v>
       </c>
       <c r="AX28" s="21" t="s">
         <v>289</v>
@@ -20826,7 +20825,7 @@
         <v>285</v>
       </c>
       <c r="U45" s="21" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="V45" s="21" t="s">
         <v>289</v>
@@ -20862,7 +20861,7 @@
         <v>289</v>
       </c>
       <c r="AG45" s="21" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="AH45" s="21" t="s">
         <v>289</v>
@@ -20874,7 +20873,7 @@
         <v>285</v>
       </c>
       <c r="AK45" s="21" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="AL45" s="21" t="s">
         <v>289</v>
@@ -20886,7 +20885,7 @@
         <v>285</v>
       </c>
       <c r="AO45" s="21" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="AP45" s="21" t="s">
         <v>289</v>
@@ -22319,13 +22318,13 @@
         <v>287</v>
       </c>
       <c r="AE54" s="21" t="s">
+        <v>2397</v>
+      </c>
+      <c r="AF54" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="AG54" s="21" t="s">
         <v>2398</v>
-      </c>
-      <c r="AF54" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG54" s="21" t="s">
-        <v>2399</v>
       </c>
       <c r="AH54" s="21" t="s">
         <v>289</v>
@@ -23949,7 +23948,7 @@
         <v>289</v>
       </c>
       <c r="AI64" s="21" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="AJ64" s="21" t="s">
         <v>287</v>
@@ -24587,7 +24586,7 @@
         <v>285</v>
       </c>
       <c r="AI68" s="21" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="AJ68" s="21" t="s">
         <v>285</v>
@@ -26010,7 +26009,7 @@
         <v>285</v>
       </c>
       <c r="U77" s="21" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="V77" s="21" t="s">
         <v>285</v>
@@ -26028,7 +26027,7 @@
         <v>285</v>
       </c>
       <c r="AA77" s="21" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="AB77" s="21" t="s">
         <v>285</v>
@@ -26058,7 +26057,7 @@
         <v>289</v>
       </c>
       <c r="AK77" s="21" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="AL77" s="21" t="s">
         <v>285</v>
@@ -26086,13 +26085,13 @@
         <v>285</v>
       </c>
       <c r="AU77" s="21" t="s">
+        <v>2404</v>
+      </c>
+      <c r="AV77" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="AW77" s="21" t="s">
         <v>2405</v>
-      </c>
-      <c r="AV77" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="AW77" s="21" t="s">
-        <v>2406</v>
       </c>
       <c r="AX77" s="21" t="s">
         <v>285</v>
@@ -26328,13 +26327,13 @@
         <v>289</v>
       </c>
       <c r="S79" s="21" t="s">
+        <v>2406</v>
+      </c>
+      <c r="T79" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="U79" s="21" t="s">
         <v>2407</v>
-      </c>
-      <c r="T79" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="U79" s="21" t="s">
-        <v>2408</v>
       </c>
       <c r="V79" s="21" t="s">
         <v>285</v>
@@ -26364,7 +26363,7 @@
         <v>285</v>
       </c>
       <c r="AE79" s="21" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="AF79" s="21" t="s">
         <v>289</v>
@@ -26418,7 +26417,7 @@
         <v>289</v>
       </c>
       <c r="AW79" s="21" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="AX79" s="21" t="s">
         <v>289</v>
@@ -27487,7 +27486,7 @@
         <v>285</v>
       </c>
       <c r="W86" s="21" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="X86" s="21" t="s">
         <v>285</v>
@@ -27505,13 +27504,13 @@
         <v>285</v>
       </c>
       <c r="AC86" s="21" t="s">
+        <v>2411</v>
+      </c>
+      <c r="AD86" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE86" s="21" t="s">
         <v>2412</v>
-      </c>
-      <c r="AD86" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="AE86" s="21" t="s">
-        <v>2413</v>
       </c>
       <c r="AF86" s="21" t="s">
         <v>285</v>
@@ -27529,7 +27528,7 @@
         <v>285</v>
       </c>
       <c r="AK86" s="21" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="AL86" s="21" t="s">
         <v>285</v>
@@ -27656,7 +27655,7 @@
         <v>289</v>
       </c>
       <c r="Y87" s="21" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="Z87" s="21" t="s">
         <v>287</v>
@@ -27877,7 +27876,7 @@
         <v>287</v>
       </c>
       <c r="AU88" s="21" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="AV88" s="21" t="s">
         <v>289</v>
@@ -27988,7 +27987,7 @@
         <v>285</v>
       </c>
       <c r="AC89" s="21" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="AD89" s="21" t="s">
         <v>285</v>
@@ -29149,7 +29148,7 @@
         <v>285</v>
       </c>
       <c r="AK96" s="21" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="AL96" s="21" t="s">
         <v>289</v>
@@ -29419,7 +29418,7 @@
         <v>285</v>
       </c>
       <c r="W98" s="21" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="X98" s="21" t="s">
         <v>285</v>
@@ -29491,7 +29490,7 @@
         <v>285</v>
       </c>
       <c r="AU98" s="21" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="AV98" s="21" t="s">
         <v>285</v>
@@ -29608,7 +29607,7 @@
         <v>285</v>
       </c>
       <c r="AE99" s="21" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="AF99" s="21" t="s">
         <v>289</v>
@@ -30717,7 +30716,7 @@
         <v>289</v>
       </c>
       <c r="W106" s="21" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="X106" s="21" t="s">
         <v>289</v>
@@ -30759,7 +30758,7 @@
         <v>289</v>
       </c>
       <c r="AK106" s="21" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="AL106" s="21" t="s">
         <v>285</v>
@@ -31079,7 +31078,7 @@
         <v>289</v>
       </c>
       <c r="AI108" s="21" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="AJ108" s="21" t="s">
         <v>289</v>
@@ -32514,7 +32513,7 @@
         <v>285</v>
       </c>
       <c r="W117" s="21" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="X117" s="21" t="s">
         <v>289</v>
@@ -32538,13 +32537,13 @@
         <v>285</v>
       </c>
       <c r="AE117" s="21" t="s">
+        <v>2425</v>
+      </c>
+      <c r="AF117" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="AG117" s="21" t="s">
         <v>2426</v>
-      </c>
-      <c r="AF117" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="AG117" s="21" t="s">
-        <v>2427</v>
       </c>
       <c r="AH117" s="21" t="s">
         <v>289</v>
@@ -33307,7 +33306,7 @@
         <v>295</v>
       </c>
       <c r="Q122" s="21" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="R122" s="21" t="s">
         <v>285</v>
@@ -33319,7 +33318,7 @@
         <v>285</v>
       </c>
       <c r="U122" s="21" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="V122" s="21" t="s">
         <v>285</v>
@@ -33349,13 +33348,13 @@
         <v>285</v>
       </c>
       <c r="AE122" s="21" t="s">
+        <v>2429</v>
+      </c>
+      <c r="AF122" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="AG122" s="21" t="s">
         <v>2430</v>
-      </c>
-      <c r="AF122" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG122" s="21" t="s">
-        <v>2431</v>
       </c>
       <c r="AH122" s="21" t="s">
         <v>285</v>
@@ -33367,13 +33366,13 @@
         <v>285</v>
       </c>
       <c r="AK122" s="21" t="s">
+        <v>2431</v>
+      </c>
+      <c r="AL122" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM122" s="21" t="s">
         <v>2432</v>
-      </c>
-      <c r="AL122" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="AM122" s="21" t="s">
-        <v>2433</v>
       </c>
       <c r="AN122" s="21" t="s">
         <v>285</v>
@@ -33385,19 +33384,19 @@
         <v>285</v>
       </c>
       <c r="AQ122" s="21" t="s">
+        <v>2433</v>
+      </c>
+      <c r="AR122" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="AS122" s="21" t="s">
         <v>2434</v>
       </c>
-      <c r="AR122" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="AS122" s="21" t="s">
+      <c r="AT122" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="AU122" s="21" t="s">
         <v>2435</v>
-      </c>
-      <c r="AT122" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="AU122" s="21" t="s">
-        <v>2436</v>
       </c>
       <c r="AV122" s="21" t="s">
         <v>285</v>
@@ -35558,8 +35557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35603,7 +35602,7 @@
         <v>1302</v>
       </c>
       <c r="B6" t="s">
-        <v>2323</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -35611,7 +35610,7 @@
         <v>1296</v>
       </c>
       <c r="B7" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -35619,7 +35618,7 @@
         <v>1295</v>
       </c>
       <c r="B8" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -35627,7 +35626,7 @@
         <v>1484</v>
       </c>
       <c r="B9" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -35635,7 +35634,7 @@
         <v>1303</v>
       </c>
       <c r="B10" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -35643,7 +35642,7 @@
         <v>1294</v>
       </c>
       <c r="B11" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -35651,7 +35650,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -35659,7 +35658,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -35667,7 +35666,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -35675,7 +35674,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -35683,7 +35682,7 @@
         <v>358</v>
       </c>
       <c r="B16" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -35691,7 +35690,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -35699,7 +35698,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -35707,7 +35706,7 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -35715,7 +35714,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -35723,7 +35722,7 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -35731,7 +35730,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -35739,7 +35738,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -35747,7 +35746,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -35755,7 +35754,7 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -35763,7 +35762,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -35771,7 +35770,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -35779,7 +35778,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -35787,7 +35786,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
@@ -35795,7 +35794,7 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -35803,199 +35802,199 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
         <v>291</v>
       </c>
       <c r="B42" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
         <v>292</v>
       </c>
       <c r="B47" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B55" t="s">
         <v>2354</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2355</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -36003,7 +36002,7 @@
         <v>288</v>
       </c>
       <c r="B56" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -36011,15 +36010,15 @@
         <v>376</v>
       </c>
       <c r="B57" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
   </sheetData>
